--- a/biology/Botanique/Septoriose/Septoriose.xlsx
+++ b/biology/Botanique/Septoriose/Septoriose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les septorioses sont des maladies fongiques des végétaux engendrées par diverses espèces de champignons de la famille des Mycosphaerellaceae, en particulier du genre Septoria. Ces maladies, qui touchent un très grand nombre de plantes hôtes, se caractérisent notamment par des taches sur les feuilles et les fruits et des chancres de la tige. 
 La principale maladie de ce type, sur le plan économique, est la septoriose du blé, qui affecte le blé et d'autres espèces du genre Triticum et se rencontre dans toutes les zones de culture du blé à travers le monde. Due  principalement à Septoria tritici et Septoria nodorum, elle peut causer des pertes de rendement de plus de 40 %. Les épidémies peuvent être très dommageables du fait de leur développement exponentiel.
@@ -512,9 +524,11 @@
           <t>Principales formes de septorioses</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon EPPO Plant Protection Thesaurus (OEPP)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon EPPO Plant Protection Thesaurus (OEPP) :
 septoriose de la carotte (Septoria dauci),
 septoriose de la laitue (Septoria lactucae),
 septoriose de la marguerite (Septoria leucanthemi),
